--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelTroGiaTroCuoc.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelTroGiaTroCuoc.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080D5CDC-5DE7-4394-921B-16F47E74FEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A6B524-F421-4899-834C-7AFD075E57B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="1905" windowWidth="12195" windowHeight="11145" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <r>
       <rPr>
@@ -59,9 +59,6 @@
     </r>
   </si>
   <si>
-    <t>6149,92</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="13"/>
@@ -72,9 +69,6 @@
     </r>
   </si>
   <si>
-    <t>170000</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="13"/>
@@ -135,9 +129,6 @@
     </r>
   </si>
   <si>
-    <t>570000</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="13"/>
@@ -148,9 +139,6 @@
     </r>
   </si>
   <si>
-    <t>360000</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="13"/>
@@ -161,9 +149,6 @@
     </r>
   </si>
   <si>
-    <t>330000</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="13"/>
@@ -174,9 +159,6 @@
     </r>
   </si>
   <si>
-    <t>290000</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="13"/>
@@ -187,9 +169,6 @@
     </r>
   </si>
   <si>
-    <t>190000</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="13"/>
@@ -240,9 +219,6 @@
     </r>
   </si>
   <si>
-    <t>250000</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="13"/>
@@ -251,9 +227,6 @@
       </rPr>
       <t>Xe ba bánh và các loại phương tiện vận chuyển tương tự</t>
     </r>
-  </si>
-  <si>
-    <t>110000</t>
   </si>
   <si>
     <r>
@@ -289,11 +262,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -313,7 +286,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -321,9 +294,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -376,23 +362,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -406,18 +383,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -740,217 +723,218 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="73" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" s="14" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:3" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="10">
+        <v>614992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="11">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="11">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="1">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="11">
+        <v>119000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="1">
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="11">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="1">
-        <v>119000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="11">
+        <v>196000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="1">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="11">
+        <v>570000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="1">
-        <v>196000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="11">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="1" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="11">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="11">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="2" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="11">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="11">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="2" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="11">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="11">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="2" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="11">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="11">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="2" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="11">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="12">
+        <v>910000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10">
-        <v>910000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="10">
+      <c r="B22" s="7"/>
+      <c r="C22" s="12">
         <v>560000</v>
       </c>
     </row>
@@ -958,6 +942,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="C3:C1048576" xr:uid="{9111FC00-95E5-476A-B4F5-236137A80634}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>